--- a/020-内部設計/023-クラス仕様書/013_商品検索/DAO/クラス仕様書_ColorDAO.xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/DAO/クラス仕様書_ColorDAO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B6507B-98D8-41B3-8F80-68953F91C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FDD912-01CC-4392-A2E0-7D9512CC36D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -298,10 +298,6 @@
   </si>
   <si>
     <t>SQLException</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>selectByCategoryId</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -645,9 +641,6 @@
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数のカラーIDと一致するカラーデータを取得</t>
   </si>
   <si>
     <t>全件検索によって取得したカラーデータのリスト</t>
@@ -1149,6 +1142,14 @@
     <rPh sb="43" eb="44">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数のカラーIDと一致するカラーデータを取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selectByColorId</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1727,7 +1728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,8 +2143,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2159,6 +2163,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2193,12 +2200,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2207,6 +2208,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2521,7 +2525,7 @@
   <dimension ref="A1:IY27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="78" zoomScaleNormal="70" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2552,7 +2556,7 @@
       <c r="P1" s="95"/>
       <c r="Q1" s="95"/>
       <c r="R1" s="100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S1" s="100"/>
       <c r="T1" s="100"/>
@@ -3088,7 +3092,7 @@
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
       <c r="G4" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="98"/>
       <c r="I4" s="98"/>
@@ -3155,7 +3159,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3222,7 +3226,7 @@
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="98"/>
@@ -3580,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
@@ -3590,7 +3594,7 @@
       <c r="I13" s="92"/>
       <c r="J13" s="93"/>
       <c r="K13" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="92"/>
       <c r="M13" s="92"/>
@@ -3600,7 +3604,7 @@
       <c r="Q13" s="92"/>
       <c r="R13" s="93"/>
       <c r="S13" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T13" s="92"/>
       <c r="U13" s="92"/>
@@ -3610,7 +3614,7 @@
       <c r="Y13" s="92"/>
       <c r="Z13" s="93"/>
       <c r="AA13" s="117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB13" s="118"/>
       <c r="AC13" s="118"/>
@@ -3620,7 +3624,7 @@
       <c r="AG13" s="118"/>
       <c r="AH13" s="118"/>
       <c r="AI13" s="117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ13" s="118"/>
       <c r="AK13" s="118"/>
@@ -3640,7 +3644,7 @@
       <c r="AY13" s="118"/>
       <c r="AZ13" s="118"/>
       <c r="BA13" s="115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB13" s="108"/>
       <c r="BC13" s="108"/>
@@ -3729,7 +3733,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="DI15" s="65"/>
       <c r="DJ15" s="65"/>
@@ -3838,7 +3842,7 @@
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
       <c r="K17" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
@@ -3866,7 +3870,7 @@
       <c r="AE17" s="128"/>
       <c r="AF17" s="129"/>
       <c r="AG17" s="119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH17" s="119"/>
       <c r="AI17" s="119"/>
@@ -3888,7 +3892,7 @@
       <c r="AY17" s="119"/>
       <c r="AZ17" s="120"/>
       <c r="BA17" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB17" s="108"/>
       <c r="BC17" s="108"/>
@@ -4062,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
@@ -4102,7 +4106,7 @@
       <c r="AE21" s="94"/>
       <c r="AF21" s="94"/>
       <c r="AG21" s="119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH21" s="119"/>
       <c r="AI21" s="119"/>
@@ -4124,7 +4128,7 @@
       <c r="AY21" s="119"/>
       <c r="AZ21" s="120"/>
       <c r="BA21" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB21" s="108"/>
       <c r="BC21" s="108"/>
@@ -4139,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
@@ -4149,7 +4153,7 @@
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
       <c r="K22" s="92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
@@ -4179,7 +4183,7 @@
       <c r="AE22" s="94"/>
       <c r="AF22" s="94"/>
       <c r="AG22" s="119" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="AH22" s="119"/>
       <c r="AI22" s="119"/>
@@ -4201,7 +4205,7 @@
       <c r="AY22" s="119"/>
       <c r="AZ22" s="120"/>
       <c r="BA22" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB22" s="108"/>
       <c r="BC22" s="108"/>
@@ -4624,7 +4628,7 @@
       <c r="I26" s="131"/>
       <c r="J26" s="132"/>
       <c r="K26" s="133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="131"/>
       <c r="M26" s="131"/>
@@ -4644,7 +4648,7 @@
       <c r="Y26" s="126"/>
       <c r="Z26" s="126"/>
       <c r="AA26" s="122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB26" s="123"/>
       <c r="AC26" s="123"/>
@@ -4672,7 +4676,7 @@
       <c r="AY26" s="123"/>
       <c r="AZ26" s="124"/>
       <c r="BA26" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB26" s="108"/>
       <c r="BC26" s="108"/>
@@ -5192,7 +5196,7 @@
   <dimension ref="A1:IY43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AL32" sqref="AL32"/>
+      <selection activeCell="AS33" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5754,71 +5758,71 @@
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
-      <c r="G4" s="144" t="str">
+      <c r="G4" s="146" t="str">
         <f>クラス仕様!AG17</f>
         <v>親クラスのコンストラクタを呼び出す</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="144"/>
-      <c r="AX4" s="144"/>
-      <c r="AY4" s="144"/>
-      <c r="AZ4" s="144"/>
-      <c r="BA4" s="144"/>
-      <c r="BB4" s="144"/>
-      <c r="BC4" s="144"/>
-      <c r="BD4" s="144"/>
-      <c r="BE4" s="144"/>
-      <c r="BF4" s="144"/>
-      <c r="BG4" s="144"/>
-      <c r="BH4" s="144"/>
-      <c r="BI4" s="144"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="146"/>
+      <c r="BB4" s="146"/>
+      <c r="BC4" s="146"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="146"/>
+      <c r="BF4" s="146"/>
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="146"/>
+      <c r="BI4" s="146"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -6018,72 +6022,72 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
-        <v>80</v>
+      <c r="A5" s="147" t="s">
+        <v>79</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="146" t="str">
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148" t="str">
         <f>クラス仕様!G6</f>
         <v>ColorDAO</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="148"/>
+      <c r="BA5" s="148"/>
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="148"/>
+      <c r="BH5" s="148"/>
+      <c r="BI5" s="148"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -7082,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="126"/>
@@ -7111,41 +7115,41 @@
       <c r="X9" s="126"/>
       <c r="Y9" s="126"/>
       <c r="Z9" s="126"/>
-      <c r="AA9" s="138" t="s">
-        <v>142</v>
+      <c r="AA9" s="145" t="s">
+        <v>140</v>
       </c>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="138"/>
-      <c r="AI9" s="138"/>
-      <c r="AJ9" s="138"/>
-      <c r="AK9" s="138"/>
-      <c r="AL9" s="138"/>
-      <c r="AM9" s="138"/>
-      <c r="AN9" s="138"/>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="138"/>
-      <c r="AQ9" s="138"/>
-      <c r="AR9" s="138"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
-      <c r="AX9" s="138"/>
-      <c r="AY9" s="138"/>
-      <c r="AZ9" s="138"/>
-      <c r="BA9" s="138"/>
-      <c r="BB9" s="138"/>
-      <c r="BC9" s="138"/>
-      <c r="BD9" s="138"/>
-      <c r="BE9" s="138"/>
-      <c r="BF9" s="138"/>
-      <c r="BG9" s="138"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="145"/>
+      <c r="BA9" s="145"/>
+      <c r="BB9" s="145"/>
+      <c r="BC9" s="145"/>
+      <c r="BD9" s="145"/>
+      <c r="BE9" s="145"/>
+      <c r="BF9" s="145"/>
+      <c r="BG9" s="145"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="3"/>
@@ -8148,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="126"/>
@@ -8158,7 +8162,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="126"/>
       <c r="K13" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
@@ -8168,7 +8172,7 @@
       <c r="Q13" s="126"/>
       <c r="R13" s="126"/>
       <c r="S13" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" s="126"/>
       <c r="U13" s="126"/>
@@ -8177,41 +8181,41 @@
       <c r="X13" s="126"/>
       <c r="Y13" s="126"/>
       <c r="Z13" s="126"/>
-      <c r="AA13" s="155" t="s">
-        <v>54</v>
+      <c r="AA13" s="138" t="s">
+        <v>53</v>
       </c>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="156"/>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="156"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
-      <c r="AQ13" s="156"/>
-      <c r="AR13" s="156"/>
-      <c r="AS13" s="156"/>
-      <c r="AT13" s="156"/>
-      <c r="AU13" s="156"/>
-      <c r="AV13" s="156"/>
-      <c r="AW13" s="156"/>
-      <c r="AX13" s="156"/>
-      <c r="AY13" s="156"/>
-      <c r="AZ13" s="156"/>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="156"/>
-      <c r="BC13" s="156"/>
-      <c r="BD13" s="156"/>
-      <c r="BE13" s="156"/>
-      <c r="BF13" s="156"/>
-      <c r="BG13" s="156"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
+      <c r="AN13" s="139"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="139"/>
+      <c r="AQ13" s="139"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="139"/>
+      <c r="AT13" s="139"/>
+      <c r="AU13" s="139"/>
+      <c r="AV13" s="139"/>
+      <c r="AW13" s="139"/>
+      <c r="AX13" s="139"/>
+      <c r="AY13" s="139"/>
+      <c r="AZ13" s="139"/>
+      <c r="BA13" s="139"/>
+      <c r="BB13" s="139"/>
+      <c r="BC13" s="139"/>
+      <c r="BD13" s="139"/>
+      <c r="BE13" s="139"/>
+      <c r="BF13" s="139"/>
+      <c r="BG13" s="139"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="38"/>
       <c r="BJ13" s="3"/>
@@ -8774,15 +8778,15 @@
       <c r="X16" s="103"/>
       <c r="Y16" s="103"/>
       <c r="Z16" s="104"/>
-      <c r="AA16" s="143" t="s">
+      <c r="AA16" s="144" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="111"/>
-      <c r="AC16" s="139" t="s">
+      <c r="AC16" s="140" t="s">
         <v>27</v>
       </c>
       <c r="AD16" s="111"/>
-      <c r="AE16" s="139" t="s">
+      <c r="AE16" s="140" t="s">
         <v>32</v>
       </c>
       <c r="AF16" s="110"/>
@@ -9022,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -9042,7 +9046,7 @@
       <c r="Q17" s="108"/>
       <c r="R17" s="109"/>
       <c r="S17" s="108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T17" s="108"/>
       <c r="U17" s="108"/>
@@ -9051,16 +9055,16 @@
       <c r="X17" s="108"/>
       <c r="Y17" s="108"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="140" t="s">
+      <c r="AA17" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="140" t="s">
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="142" t="s">
-        <v>83</v>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="143" t="s">
+        <v>82</v>
       </c>
       <c r="AF17" s="119"/>
       <c r="AG17" s="119"/>
@@ -9082,7 +9086,7 @@
       <c r="AW17" s="119"/>
       <c r="AX17" s="119"/>
       <c r="AY17" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ17" s="118"/>
       <c r="BA17" s="118"/>
@@ -10616,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="126"/>
@@ -10626,7 +10630,7 @@
       <c r="I23" s="126"/>
       <c r="J23" s="126"/>
       <c r="K23" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="126"/>
       <c r="M23" s="126"/>
@@ -10636,7 +10640,7 @@
       <c r="Q23" s="126"/>
       <c r="R23" s="126"/>
       <c r="S23" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" s="126"/>
       <c r="U23" s="126"/>
@@ -10645,41 +10649,41 @@
       <c r="X23" s="126"/>
       <c r="Y23" s="126"/>
       <c r="Z23" s="126"/>
-      <c r="AA23" s="155" t="s">
-        <v>54</v>
+      <c r="AA23" s="138" t="s">
+        <v>53</v>
       </c>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="156"/>
-      <c r="AJ23" s="156"/>
-      <c r="AK23" s="156"/>
-      <c r="AL23" s="156"/>
-      <c r="AM23" s="156"/>
-      <c r="AN23" s="156"/>
-      <c r="AO23" s="156"/>
-      <c r="AP23" s="156"/>
-      <c r="AQ23" s="156"/>
-      <c r="AR23" s="156"/>
-      <c r="AS23" s="156"/>
-      <c r="AT23" s="156"/>
-      <c r="AU23" s="156"/>
-      <c r="AV23" s="156"/>
-      <c r="AW23" s="156"/>
-      <c r="AX23" s="156"/>
-      <c r="AY23" s="156"/>
-      <c r="AZ23" s="156"/>
-      <c r="BA23" s="156"/>
-      <c r="BB23" s="156"/>
-      <c r="BC23" s="156"/>
-      <c r="BD23" s="156"/>
-      <c r="BE23" s="156"/>
-      <c r="BF23" s="156"/>
-      <c r="BG23" s="156"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="139"/>
+      <c r="AN23" s="139"/>
+      <c r="AO23" s="139"/>
+      <c r="AP23" s="139"/>
+      <c r="AQ23" s="139"/>
+      <c r="AR23" s="139"/>
+      <c r="AS23" s="139"/>
+      <c r="AT23" s="139"/>
+      <c r="AU23" s="139"/>
+      <c r="AV23" s="139"/>
+      <c r="AW23" s="139"/>
+      <c r="AX23" s="139"/>
+      <c r="AY23" s="139"/>
+      <c r="AZ23" s="139"/>
+      <c r="BA23" s="139"/>
+      <c r="BB23" s="139"/>
+      <c r="BC23" s="139"/>
+      <c r="BD23" s="139"/>
+      <c r="BE23" s="139"/>
+      <c r="BF23" s="139"/>
+      <c r="BG23" s="139"/>
       <c r="BH23" s="21"/>
       <c r="BI23" s="38"/>
       <c r="BJ23" s="3"/>
@@ -11407,7 +11411,7 @@
     <row r="26" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -16173,7 +16177,7 @@
   <dimension ref="A1:IY57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="109" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
+      <selection activeCell="K13" sqref="K13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16742,64 +16746,64 @@
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
-      <c r="G4" s="144" t="str">
+      <c r="G4" s="146" t="str">
         <f>クラス仕様!AG21</f>
         <v>カラーデータを全件取得</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="144"/>
-      <c r="AX4" s="144"/>
-      <c r="AY4" s="144"/>
-      <c r="AZ4" s="144"/>
-      <c r="BA4" s="144"/>
-      <c r="BB4" s="144"/>
-      <c r="BC4" s="144"/>
-      <c r="BD4" s="144"/>
-      <c r="BE4" s="144"/>
-      <c r="BF4" s="144"/>
-      <c r="BG4" s="144"/>
-      <c r="BH4" s="144"/>
-      <c r="BI4" s="144"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="146"/>
+      <c r="BB4" s="146"/>
+      <c r="BC4" s="146"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="146"/>
+      <c r="BF4" s="146"/>
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="146"/>
+      <c r="BI4" s="146"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -16999,72 +17003,72 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="146" t="str">
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148" t="str">
         <f>クラス仕様!K21</f>
         <v>selectAll</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="148"/>
+      <c r="BA5" s="148"/>
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="148"/>
+      <c r="BH5" s="148"/>
+      <c r="BI5" s="148"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -18063,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="126"/>
@@ -18073,7 +18077,7 @@
       <c r="I9" s="126"/>
       <c r="J9" s="126"/>
       <c r="K9" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="126"/>
       <c r="M9" s="126"/>
@@ -18083,7 +18087,7 @@
       <c r="Q9" s="126"/>
       <c r="R9" s="126"/>
       <c r="S9" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="126"/>
       <c r="U9" s="126"/>
@@ -18092,41 +18096,41 @@
       <c r="X9" s="126"/>
       <c r="Y9" s="126"/>
       <c r="Z9" s="126"/>
-      <c r="AA9" s="155" t="s">
-        <v>54</v>
+      <c r="AA9" s="138" t="s">
+        <v>53</v>
       </c>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="156"/>
-      <c r="AH9" s="156"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="156"/>
-      <c r="AK9" s="156"/>
-      <c r="AL9" s="156"/>
-      <c r="AM9" s="156"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
-      <c r="AX9" s="156"/>
-      <c r="AY9" s="156"/>
-      <c r="AZ9" s="156"/>
-      <c r="BA9" s="156"/>
-      <c r="BB9" s="156"/>
-      <c r="BC9" s="156"/>
-      <c r="BD9" s="156"/>
-      <c r="BE9" s="156"/>
-      <c r="BF9" s="156"/>
-      <c r="BG9" s="156"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="139"/>
+      <c r="AM9" s="139"/>
+      <c r="AN9" s="139"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="139"/>
+      <c r="AQ9" s="139"/>
+      <c r="AR9" s="139"/>
+      <c r="AS9" s="139"/>
+      <c r="AT9" s="139"/>
+      <c r="AU9" s="139"/>
+      <c r="AV9" s="139"/>
+      <c r="AW9" s="139"/>
+      <c r="AX9" s="139"/>
+      <c r="AY9" s="139"/>
+      <c r="AZ9" s="139"/>
+      <c r="BA9" s="139"/>
+      <c r="BB9" s="139"/>
+      <c r="BC9" s="139"/>
+      <c r="BD9" s="139"/>
+      <c r="BE9" s="139"/>
+      <c r="BF9" s="139"/>
+      <c r="BG9" s="139"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="3"/>
@@ -19129,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="126"/>
@@ -19139,7 +19143,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="126"/>
       <c r="K13" s="126" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
@@ -19149,7 +19153,7 @@
       <c r="Q13" s="126"/>
       <c r="R13" s="126"/>
       <c r="S13" s="126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T13" s="126"/>
       <c r="U13" s="126"/>
@@ -19158,41 +19162,41 @@
       <c r="X13" s="126"/>
       <c r="Y13" s="126"/>
       <c r="Z13" s="126"/>
-      <c r="AA13" s="138" t="s">
-        <v>101</v>
+      <c r="AA13" s="145" t="s">
+        <v>99</v>
       </c>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="138"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="138"/>
-      <c r="AJ13" s="138"/>
-      <c r="AK13" s="138"/>
-      <c r="AL13" s="138"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="138"/>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="138"/>
-      <c r="AQ13" s="138"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="138"/>
-      <c r="AT13" s="138"/>
-      <c r="AU13" s="138"/>
-      <c r="AV13" s="138"/>
-      <c r="AW13" s="138"/>
-      <c r="AX13" s="138"/>
-      <c r="AY13" s="138"/>
-      <c r="AZ13" s="138"/>
-      <c r="BA13" s="138"/>
-      <c r="BB13" s="138"/>
-      <c r="BC13" s="138"/>
-      <c r="BD13" s="138"/>
-      <c r="BE13" s="138"/>
-      <c r="BF13" s="138"/>
-      <c r="BG13" s="138"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="145"/>
+      <c r="AN13" s="145"/>
+      <c r="AO13" s="145"/>
+      <c r="AP13" s="145"/>
+      <c r="AQ13" s="145"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="145"/>
+      <c r="AT13" s="145"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="145"/>
+      <c r="AW13" s="145"/>
+      <c r="AX13" s="145"/>
+      <c r="AY13" s="145"/>
+      <c r="AZ13" s="145"/>
+      <c r="BA13" s="145"/>
+      <c r="BB13" s="145"/>
+      <c r="BC13" s="145"/>
+      <c r="BD13" s="145"/>
+      <c r="BE13" s="145"/>
+      <c r="BF13" s="145"/>
+      <c r="BG13" s="145"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="38"/>
       <c r="BJ13" s="3"/>
@@ -19755,15 +19759,15 @@
       <c r="X16" s="103"/>
       <c r="Y16" s="103"/>
       <c r="Z16" s="104"/>
-      <c r="AA16" s="143" t="s">
+      <c r="AA16" s="144" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="111"/>
-      <c r="AC16" s="139" t="s">
+      <c r="AC16" s="140" t="s">
         <v>27</v>
       </c>
       <c r="AD16" s="111"/>
-      <c r="AE16" s="139" t="s">
+      <c r="AE16" s="140" t="s">
         <v>32</v>
       </c>
       <c r="AF16" s="110"/>
@@ -20003,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -20023,7 +20027,7 @@
       <c r="Q17" s="108"/>
       <c r="R17" s="109"/>
       <c r="S17" s="121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T17" s="108"/>
       <c r="U17" s="108"/>
@@ -20032,16 +20036,16 @@
       <c r="X17" s="108"/>
       <c r="Y17" s="108"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="140" t="s">
+      <c r="AA17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="140" t="s">
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="147" t="s">
-        <v>74</v>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="149" t="s">
+        <v>73</v>
       </c>
       <c r="AF17" s="119"/>
       <c r="AG17" s="119"/>
@@ -20063,7 +20067,7 @@
       <c r="AW17" s="119"/>
       <c r="AX17" s="119"/>
       <c r="AY17" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ17" s="118"/>
       <c r="BA17" s="118"/>
@@ -20280,7 +20284,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -20290,7 +20294,7 @@
       <c r="I18" s="108"/>
       <c r="J18" s="109"/>
       <c r="K18" s="121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L18" s="108"/>
       <c r="M18" s="108"/>
@@ -20300,7 +20304,7 @@
       <c r="Q18" s="108"/>
       <c r="R18" s="109"/>
       <c r="S18" s="121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T18" s="108"/>
       <c r="U18" s="108"/>
@@ -20309,16 +20313,16 @@
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
       <c r="Z18" s="109"/>
-      <c r="AA18" s="140" t="s">
+      <c r="AA18" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="140" t="s">
-        <v>60</v>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="141" t="s">
+        <v>59</v>
       </c>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="147" t="s">
-        <v>105</v>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="149" t="s">
+        <v>103</v>
       </c>
       <c r="AF18" s="119"/>
       <c r="AG18" s="119"/>
@@ -20340,7 +20344,7 @@
       <c r="AW18" s="119"/>
       <c r="AX18" s="119"/>
       <c r="AY18" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ18" s="118"/>
       <c r="BA18" s="118"/>
@@ -20557,7 +20561,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -20567,7 +20571,7 @@
       <c r="I19" s="108"/>
       <c r="J19" s="109"/>
       <c r="K19" s="121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L19" s="108"/>
       <c r="M19" s="108"/>
@@ -20577,7 +20581,7 @@
       <c r="Q19" s="108"/>
       <c r="R19" s="109"/>
       <c r="S19" s="121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T19" s="108"/>
       <c r="U19" s="108"/>
@@ -20586,16 +20590,16 @@
       <c r="X19" s="108"/>
       <c r="Y19" s="108"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="140" t="s">
+      <c r="AA19" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="140" t="s">
+      <c r="AB19" s="142"/>
+      <c r="AC19" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="147" t="s">
-        <v>116</v>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="149" t="s">
+        <v>114</v>
       </c>
       <c r="AF19" s="119"/>
       <c r="AG19" s="119"/>
@@ -20617,7 +20621,7 @@
       <c r="AW19" s="119"/>
       <c r="AX19" s="119"/>
       <c r="AY19" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ19" s="118"/>
       <c r="BA19" s="118"/>
@@ -20833,77 +20837,77 @@
       <c r="B20" s="32">
         <v>4</v>
       </c>
-      <c r="C20" s="147" t="s">
-        <v>57</v>
+      <c r="C20" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150" t="s">
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="140" t="s">
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="151" t="s">
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="147" t="s">
-        <v>75</v>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="149" t="s">
+        <v>74</v>
       </c>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="148"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
-      <c r="AX20" s="149"/>
-      <c r="AY20" s="152" t="s">
-        <v>104</v>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="150"/>
+      <c r="AI20" s="150"/>
+      <c r="AJ20" s="150"/>
+      <c r="AK20" s="150"/>
+      <c r="AL20" s="150"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="150"/>
+      <c r="AO20" s="150"/>
+      <c r="AP20" s="150"/>
+      <c r="AQ20" s="150"/>
+      <c r="AR20" s="150"/>
+      <c r="AS20" s="150"/>
+      <c r="AT20" s="150"/>
+      <c r="AU20" s="150"/>
+      <c r="AV20" s="150"/>
+      <c r="AW20" s="150"/>
+      <c r="AX20" s="151"/>
+      <c r="AY20" s="154" t="s">
+        <v>102</v>
       </c>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="153"/>
-      <c r="BB20" s="153"/>
-      <c r="BC20" s="153"/>
-      <c r="BD20" s="153"/>
-      <c r="BE20" s="153"/>
-      <c r="BF20" s="153"/>
-      <c r="BG20" s="154"/>
+      <c r="AZ20" s="155"/>
+      <c r="BA20" s="155"/>
+      <c r="BB20" s="155"/>
+      <c r="BC20" s="155"/>
+      <c r="BD20" s="155"/>
+      <c r="BE20" s="155"/>
+      <c r="BF20" s="155"/>
+      <c r="BG20" s="156"/>
       <c r="BH20" s="21"/>
       <c r="BI20" s="38"/>
       <c r="BJ20" s="3"/>
@@ -21111,7 +21115,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="108"/>
       <c r="E21" s="108"/>
@@ -21121,7 +21125,7 @@
       <c r="I21" s="108"/>
       <c r="J21" s="109"/>
       <c r="K21" s="121" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L21" s="108"/>
       <c r="M21" s="108"/>
@@ -21131,7 +21135,7 @@
       <c r="Q21" s="108"/>
       <c r="R21" s="109"/>
       <c r="S21" s="121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T21" s="108"/>
       <c r="U21" s="108"/>
@@ -21140,16 +21144,16 @@
       <c r="X21" s="108"/>
       <c r="Y21" s="108"/>
       <c r="Z21" s="109"/>
-      <c r="AA21" s="140" t="s">
+      <c r="AA21" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="140" t="s">
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="147" t="s">
-        <v>102</v>
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="149" t="s">
+        <v>100</v>
       </c>
       <c r="AF21" s="119"/>
       <c r="AG21" s="119"/>
@@ -21171,7 +21175,7 @@
       <c r="AW21" s="119"/>
       <c r="AX21" s="119"/>
       <c r="AY21" s="157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ21" s="158"/>
       <c r="BA21" s="158"/>
@@ -21387,68 +21391,68 @@
       <c r="B22" s="32">
         <v>6</v>
       </c>
-      <c r="C22" s="147" t="s">
-        <v>57</v>
+      <c r="C22" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150" t="s">
-        <v>68</v>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152" t="s">
+        <v>67</v>
       </c>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150" t="s">
-        <v>65</v>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="152" t="s">
+        <v>64</v>
       </c>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="140" t="s">
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="151" t="s">
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="147" t="s">
-        <v>76</v>
+      <c r="AD22" s="142"/>
+      <c r="AE22" s="149" t="s">
+        <v>75</v>
       </c>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="148"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="149"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="150"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="150"/>
+      <c r="AP22" s="150"/>
+      <c r="AQ22" s="150"/>
+      <c r="AR22" s="150"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="150"/>
+      <c r="AU22" s="150"/>
+      <c r="AV22" s="150"/>
+      <c r="AW22" s="150"/>
+      <c r="AX22" s="151"/>
       <c r="AY22" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ22" s="118"/>
       <c r="BA22" s="118"/>
@@ -21664,68 +21668,68 @@
       <c r="B23" s="32">
         <v>7</v>
       </c>
-      <c r="C23" s="147" t="s">
-        <v>57</v>
+      <c r="C23" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150" t="s">
-        <v>69</v>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152" t="s">
+        <v>68</v>
       </c>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150" t="s">
-        <v>66</v>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="152" t="s">
+        <v>65</v>
       </c>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="140" t="s">
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="151" t="s">
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="147" t="s">
-        <v>77</v>
+      <c r="AD23" s="142"/>
+      <c r="AE23" s="149" t="s">
+        <v>76</v>
       </c>
-      <c r="AF23" s="148"/>
-      <c r="AG23" s="148"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="148"/>
-      <c r="AJ23" s="148"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="148"/>
-      <c r="AM23" s="148"/>
-      <c r="AN23" s="148"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="148"/>
-      <c r="AS23" s="148"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="148"/>
-      <c r="AX23" s="149"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="150"/>
+      <c r="AH23" s="150"/>
+      <c r="AI23" s="150"/>
+      <c r="AJ23" s="150"/>
+      <c r="AK23" s="150"/>
+      <c r="AL23" s="150"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="150"/>
+      <c r="AO23" s="150"/>
+      <c r="AP23" s="150"/>
+      <c r="AQ23" s="150"/>
+      <c r="AR23" s="150"/>
+      <c r="AS23" s="150"/>
+      <c r="AT23" s="150"/>
+      <c r="AU23" s="150"/>
+      <c r="AV23" s="150"/>
+      <c r="AW23" s="150"/>
+      <c r="AX23" s="151"/>
       <c r="AY23" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ23" s="118"/>
       <c r="BA23" s="118"/>
@@ -21941,68 +21945,68 @@
       <c r="B24" s="32">
         <v>8</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150" t="s">
-        <v>71</v>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="152" t="s">
+        <v>66</v>
       </c>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="140" t="s">
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="151" t="s">
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="147" t="s">
-        <v>78</v>
+      <c r="AD24" s="142"/>
+      <c r="AE24" s="149" t="s">
+        <v>77</v>
       </c>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="148"/>
-      <c r="AJ24" s="148"/>
-      <c r="AK24" s="148"/>
-      <c r="AL24" s="148"/>
-      <c r="AM24" s="148"/>
-      <c r="AN24" s="148"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="148"/>
-      <c r="AS24" s="148"/>
-      <c r="AT24" s="148"/>
-      <c r="AU24" s="148"/>
-      <c r="AV24" s="148"/>
-      <c r="AW24" s="148"/>
-      <c r="AX24" s="149"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="150"/>
+      <c r="AJ24" s="150"/>
+      <c r="AK24" s="150"/>
+      <c r="AL24" s="150"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="150"/>
+      <c r="AO24" s="150"/>
+      <c r="AP24" s="150"/>
+      <c r="AQ24" s="150"/>
+      <c r="AR24" s="150"/>
+      <c r="AS24" s="150"/>
+      <c r="AT24" s="150"/>
+      <c r="AU24" s="150"/>
+      <c r="AV24" s="150"/>
+      <c r="AW24" s="150"/>
+      <c r="AX24" s="151"/>
       <c r="AY24" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ24" s="118"/>
       <c r="BA24" s="118"/>
@@ -23024,7 +23028,7 @@
       <c r="I28" s="126"/>
       <c r="J28" s="126"/>
       <c r="K28" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" s="126"/>
       <c r="M28" s="126"/>
@@ -23043,41 +23047,41 @@
       <c r="X28" s="126"/>
       <c r="Y28" s="126"/>
       <c r="Z28" s="126"/>
-      <c r="AA28" s="138" t="s">
-        <v>140</v>
+      <c r="AA28" s="145" t="s">
+        <v>138</v>
       </c>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
-      <c r="AU28" s="138"/>
-      <c r="AV28" s="138"/>
-      <c r="AW28" s="138"/>
-      <c r="AX28" s="138"/>
-      <c r="AY28" s="138"/>
-      <c r="AZ28" s="138"/>
-      <c r="BA28" s="138"/>
-      <c r="BB28" s="138"/>
-      <c r="BC28" s="138"/>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="138"/>
-      <c r="BF28" s="138"/>
-      <c r="BG28" s="138"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="145"/>
       <c r="BH28" s="21"/>
       <c r="BI28" s="38"/>
       <c r="BJ28" s="3"/>
@@ -23805,7 +23809,7 @@
     <row r="31" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -24328,7 +24332,7 @@
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="D33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -24584,12 +24588,12 @@
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="D34" s="73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" s="74"/>
       <c r="F34" s="75"/>
       <c r="G34" s="74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -24847,12 +24851,12 @@
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="D35" s="76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="77"/>
       <c r="F35" s="78"/>
       <c r="G35" s="77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H35" s="77"/>
       <c r="I35" s="77"/>
@@ -25110,12 +25114,12 @@
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="D36" s="79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="81"/>
       <c r="G36" s="80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H36" s="80"/>
       <c r="I36" s="80"/>
@@ -25632,7 +25636,7 @@
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -26147,7 +26151,7 @@
     <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="7"/>
@@ -26655,7 +26659,7 @@
     <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="7"/>
@@ -27170,7 +27174,7 @@
     <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="86"/>
       <c r="D44" s="86"/>
@@ -27430,10 +27434,10 @@
     <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
       <c r="B45" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="86"/>
       <c r="E45" s="86"/>
@@ -27696,7 +27700,7 @@
       <c r="B46" s="86"/>
       <c r="C46" s="86"/>
       <c r="D46" s="87" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46" s="86"/>
       <c r="F46" s="86"/>
@@ -27956,7 +27960,7 @@
       <c r="A47" s="66"/>
       <c r="B47" s="86"/>
       <c r="C47" s="86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="86"/>
@@ -28477,7 +28481,7 @@
     <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="86"/>
       <c r="D49" s="86"/>
@@ -29259,7 +29263,7 @@
     <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="135"/>
       <c r="D52" s="135"/>
@@ -29521,7 +29525,7 @@
     <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
@@ -30106,8 +30110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DC07C9-1287-4319-8E40-F58371C7DDB8}">
   <dimension ref="A1:IY58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26:BG26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30676,64 +30680,64 @@
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
-      <c r="G4" s="144" t="str">
+      <c r="G4" s="146" t="str">
         <f>クラス仕様!AG22</f>
         <v>引数のカラーIDと一致するカラーデータを取得</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="144"/>
-      <c r="AX4" s="144"/>
-      <c r="AY4" s="144"/>
-      <c r="AZ4" s="144"/>
-      <c r="BA4" s="144"/>
-      <c r="BB4" s="144"/>
-      <c r="BC4" s="144"/>
-      <c r="BD4" s="144"/>
-      <c r="BE4" s="144"/>
-      <c r="BF4" s="144"/>
-      <c r="BG4" s="144"/>
-      <c r="BH4" s="144"/>
-      <c r="BI4" s="144"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="146"/>
+      <c r="BB4" s="146"/>
+      <c r="BC4" s="146"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="146"/>
+      <c r="BF4" s="146"/>
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="146"/>
+      <c r="BI4" s="146"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -30933,71 +30937,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="146" t="s">
-        <v>52</v>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="160" t="s">
+        <v>143</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="148"/>
+      <c r="BA5" s="148"/>
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="148"/>
+      <c r="BH5" s="148"/>
+      <c r="BI5" s="148"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -31996,7 +32000,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="126"/>
@@ -32006,7 +32010,7 @@
       <c r="I9" s="126"/>
       <c r="J9" s="126"/>
       <c r="K9" s="126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="126"/>
       <c r="M9" s="126"/>
@@ -32016,7 +32020,7 @@
       <c r="Q9" s="126"/>
       <c r="R9" s="126"/>
       <c r="S9" s="126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T9" s="126"/>
       <c r="U9" s="126"/>
@@ -32025,41 +32029,41 @@
       <c r="X9" s="126"/>
       <c r="Y9" s="126"/>
       <c r="Z9" s="126"/>
-      <c r="AA9" s="138" t="s">
-        <v>87</v>
+      <c r="AA9" s="145" t="s">
+        <v>86</v>
       </c>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="138"/>
-      <c r="AI9" s="138"/>
-      <c r="AJ9" s="138"/>
-      <c r="AK9" s="138"/>
-      <c r="AL9" s="138"/>
-      <c r="AM9" s="138"/>
-      <c r="AN9" s="138"/>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="138"/>
-      <c r="AQ9" s="138"/>
-      <c r="AR9" s="138"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
-      <c r="AX9" s="138"/>
-      <c r="AY9" s="138"/>
-      <c r="AZ9" s="138"/>
-      <c r="BA9" s="138"/>
-      <c r="BB9" s="138"/>
-      <c r="BC9" s="138"/>
-      <c r="BD9" s="138"/>
-      <c r="BE9" s="138"/>
-      <c r="BF9" s="138"/>
-      <c r="BG9" s="138"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="145"/>
+      <c r="BA9" s="145"/>
+      <c r="BB9" s="145"/>
+      <c r="BC9" s="145"/>
+      <c r="BD9" s="145"/>
+      <c r="BE9" s="145"/>
+      <c r="BF9" s="145"/>
+      <c r="BG9" s="145"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="3"/>
@@ -33062,7 +33066,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="126"/>
@@ -33072,7 +33076,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="126"/>
       <c r="K13" s="126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
@@ -33082,7 +33086,7 @@
       <c r="Q13" s="126"/>
       <c r="R13" s="126"/>
       <c r="S13" s="126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T13" s="126"/>
       <c r="U13" s="126"/>
@@ -33091,41 +33095,41 @@
       <c r="X13" s="126"/>
       <c r="Y13" s="126"/>
       <c r="Z13" s="126"/>
-      <c r="AA13" s="138" t="s">
-        <v>119</v>
+      <c r="AA13" s="145" t="s">
+        <v>117</v>
       </c>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="138"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="138"/>
-      <c r="AJ13" s="138"/>
-      <c r="AK13" s="138"/>
-      <c r="AL13" s="138"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="138"/>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="138"/>
-      <c r="AQ13" s="138"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="138"/>
-      <c r="AT13" s="138"/>
-      <c r="AU13" s="138"/>
-      <c r="AV13" s="138"/>
-      <c r="AW13" s="138"/>
-      <c r="AX13" s="138"/>
-      <c r="AY13" s="138"/>
-      <c r="AZ13" s="138"/>
-      <c r="BA13" s="138"/>
-      <c r="BB13" s="138"/>
-      <c r="BC13" s="138"/>
-      <c r="BD13" s="138"/>
-      <c r="BE13" s="138"/>
-      <c r="BF13" s="138"/>
-      <c r="BG13" s="138"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="145"/>
+      <c r="AN13" s="145"/>
+      <c r="AO13" s="145"/>
+      <c r="AP13" s="145"/>
+      <c r="AQ13" s="145"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="145"/>
+      <c r="AT13" s="145"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="145"/>
+      <c r="AW13" s="145"/>
+      <c r="AX13" s="145"/>
+      <c r="AY13" s="145"/>
+      <c r="AZ13" s="145"/>
+      <c r="BA13" s="145"/>
+      <c r="BB13" s="145"/>
+      <c r="BC13" s="145"/>
+      <c r="BD13" s="145"/>
+      <c r="BE13" s="145"/>
+      <c r="BF13" s="145"/>
+      <c r="BG13" s="145"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="38"/>
       <c r="BJ13" s="3"/>
@@ -33688,15 +33692,15 @@
       <c r="X16" s="103"/>
       <c r="Y16" s="103"/>
       <c r="Z16" s="104"/>
-      <c r="AA16" s="143" t="s">
+      <c r="AA16" s="144" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="111"/>
-      <c r="AC16" s="139" t="s">
+      <c r="AC16" s="140" t="s">
         <v>27</v>
       </c>
       <c r="AD16" s="111"/>
-      <c r="AE16" s="139" t="s">
+      <c r="AE16" s="140" t="s">
         <v>32</v>
       </c>
       <c r="AF16" s="110"/>
@@ -33936,7 +33940,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -33956,7 +33960,7 @@
       <c r="Q17" s="108"/>
       <c r="R17" s="109"/>
       <c r="S17" s="121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="108"/>
       <c r="U17" s="108"/>
@@ -33965,16 +33969,16 @@
       <c r="X17" s="108"/>
       <c r="Y17" s="108"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="140" t="s">
+      <c r="AA17" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="140" t="s">
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="147" t="s">
-        <v>120</v>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="149" t="s">
+        <v>118</v>
       </c>
       <c r="AF17" s="119"/>
       <c r="AG17" s="119"/>
@@ -33996,7 +34000,7 @@
       <c r="AW17" s="119"/>
       <c r="AX17" s="119"/>
       <c r="AY17" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ17" s="118"/>
       <c r="BA17" s="118"/>
@@ -34213,7 +34217,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -34223,7 +34227,7 @@
       <c r="I18" s="108"/>
       <c r="J18" s="109"/>
       <c r="K18" s="121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L18" s="108"/>
       <c r="M18" s="108"/>
@@ -34233,7 +34237,7 @@
       <c r="Q18" s="108"/>
       <c r="R18" s="109"/>
       <c r="S18" s="121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T18" s="108"/>
       <c r="U18" s="108"/>
@@ -34242,16 +34246,16 @@
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
       <c r="Z18" s="109"/>
-      <c r="AA18" s="140" t="s">
+      <c r="AA18" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="140" t="s">
-        <v>60</v>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="141" t="s">
+        <v>59</v>
       </c>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="147" t="s">
-        <v>121</v>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="149" t="s">
+        <v>119</v>
       </c>
       <c r="AF18" s="119"/>
       <c r="AG18" s="119"/>
@@ -34273,7 +34277,7 @@
       <c r="AW18" s="119"/>
       <c r="AX18" s="119"/>
       <c r="AY18" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ18" s="118"/>
       <c r="BA18" s="118"/>
@@ -34490,7 +34494,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -34500,7 +34504,7 @@
       <c r="I19" s="108"/>
       <c r="J19" s="109"/>
       <c r="K19" s="121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L19" s="108"/>
       <c r="M19" s="108"/>
@@ -34510,7 +34514,7 @@
       <c r="Q19" s="108"/>
       <c r="R19" s="109"/>
       <c r="S19" s="121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T19" s="108"/>
       <c r="U19" s="108"/>
@@ -34519,16 +34523,16 @@
       <c r="X19" s="108"/>
       <c r="Y19" s="108"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="140" t="s">
+      <c r="AA19" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="140" t="s">
+      <c r="AB19" s="142"/>
+      <c r="AC19" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="147" t="s">
-        <v>116</v>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="149" t="s">
+        <v>114</v>
       </c>
       <c r="AF19" s="119"/>
       <c r="AG19" s="119"/>
@@ -34550,7 +34554,7 @@
       <c r="AW19" s="119"/>
       <c r="AX19" s="119"/>
       <c r="AY19" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ19" s="118"/>
       <c r="BA19" s="118"/>
@@ -34766,77 +34770,77 @@
       <c r="B20" s="32">
         <v>4</v>
       </c>
-      <c r="C20" s="147" t="s">
-        <v>57</v>
+      <c r="C20" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150" t="s">
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="140" t="s">
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="151" t="s">
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="147" t="s">
-        <v>75</v>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="149" t="s">
+        <v>74</v>
       </c>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="148"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
-      <c r="AX20" s="149"/>
-      <c r="AY20" s="152" t="s">
-        <v>127</v>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="150"/>
+      <c r="AI20" s="150"/>
+      <c r="AJ20" s="150"/>
+      <c r="AK20" s="150"/>
+      <c r="AL20" s="150"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="150"/>
+      <c r="AO20" s="150"/>
+      <c r="AP20" s="150"/>
+      <c r="AQ20" s="150"/>
+      <c r="AR20" s="150"/>
+      <c r="AS20" s="150"/>
+      <c r="AT20" s="150"/>
+      <c r="AU20" s="150"/>
+      <c r="AV20" s="150"/>
+      <c r="AW20" s="150"/>
+      <c r="AX20" s="151"/>
+      <c r="AY20" s="154" t="s">
+        <v>125</v>
       </c>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="153"/>
-      <c r="BB20" s="153"/>
-      <c r="BC20" s="153"/>
-      <c r="BD20" s="153"/>
-      <c r="BE20" s="153"/>
-      <c r="BF20" s="153"/>
-      <c r="BG20" s="154"/>
+      <c r="AZ20" s="155"/>
+      <c r="BA20" s="155"/>
+      <c r="BB20" s="155"/>
+      <c r="BC20" s="155"/>
+      <c r="BD20" s="155"/>
+      <c r="BE20" s="155"/>
+      <c r="BF20" s="155"/>
+      <c r="BG20" s="156"/>
       <c r="BH20" s="21"/>
       <c r="BI20" s="38"/>
       <c r="BJ20" s="3"/>
@@ -35043,68 +35047,68 @@
       <c r="B21" s="32">
         <v>5</v>
       </c>
-      <c r="C21" s="147" t="s">
-        <v>57</v>
+      <c r="C21" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150" t="s">
-        <v>68</v>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152" t="s">
+        <v>67</v>
       </c>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150" t="s">
-        <v>65</v>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="152" t="s">
+        <v>64</v>
       </c>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="140" t="s">
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="151" t="s">
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="147" t="s">
-        <v>76</v>
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="149" t="s">
+        <v>75</v>
       </c>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="148"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="148"/>
-      <c r="AL21" s="148"/>
-      <c r="AM21" s="148"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="148"/>
-      <c r="AS21" s="148"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="148"/>
-      <c r="AX21" s="149"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="150"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="150"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="150"/>
+      <c r="AP21" s="150"/>
+      <c r="AQ21" s="150"/>
+      <c r="AR21" s="150"/>
+      <c r="AS21" s="150"/>
+      <c r="AT21" s="150"/>
+      <c r="AU21" s="150"/>
+      <c r="AV21" s="150"/>
+      <c r="AW21" s="150"/>
+      <c r="AX21" s="151"/>
       <c r="AY21" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ21" s="118"/>
       <c r="BA21" s="118"/>
@@ -35320,68 +35324,68 @@
       <c r="B22" s="32">
         <v>6</v>
       </c>
-      <c r="C22" s="147" t="s">
-        <v>57</v>
+      <c r="C22" s="149" t="s">
+        <v>56</v>
       </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150" t="s">
-        <v>69</v>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152" t="s">
+        <v>68</v>
       </c>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150" t="s">
-        <v>66</v>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="152" t="s">
+        <v>65</v>
       </c>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="140" t="s">
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="151" t="s">
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="147" t="s">
-        <v>77</v>
+      <c r="AD22" s="142"/>
+      <c r="AE22" s="149" t="s">
+        <v>76</v>
       </c>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="148"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="149"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="150"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="150"/>
+      <c r="AP22" s="150"/>
+      <c r="AQ22" s="150"/>
+      <c r="AR22" s="150"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="150"/>
+      <c r="AU22" s="150"/>
+      <c r="AV22" s="150"/>
+      <c r="AW22" s="150"/>
+      <c r="AX22" s="151"/>
       <c r="AY22" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ22" s="118"/>
       <c r="BA22" s="118"/>
@@ -36664,7 +36668,7 @@
       <c r="I27" s="126"/>
       <c r="J27" s="126"/>
       <c r="K27" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="126"/>
       <c r="M27" s="126"/>
@@ -36683,41 +36687,41 @@
       <c r="X27" s="126"/>
       <c r="Y27" s="126"/>
       <c r="Z27" s="126"/>
-      <c r="AA27" s="138" t="s">
-        <v>139</v>
+      <c r="AA27" s="145" t="s">
+        <v>137</v>
       </c>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="138"/>
-      <c r="AG27" s="138"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="138"/>
-      <c r="AJ27" s="138"/>
-      <c r="AK27" s="138"/>
-      <c r="AL27" s="138"/>
-      <c r="AM27" s="138"/>
-      <c r="AN27" s="138"/>
-      <c r="AO27" s="138"/>
-      <c r="AP27" s="138"/>
-      <c r="AQ27" s="138"/>
-      <c r="AR27" s="138"/>
-      <c r="AS27" s="138"/>
-      <c r="AT27" s="138"/>
-      <c r="AU27" s="138"/>
-      <c r="AV27" s="138"/>
-      <c r="AW27" s="138"/>
-      <c r="AX27" s="138"/>
-      <c r="AY27" s="138"/>
-      <c r="AZ27" s="138"/>
-      <c r="BA27" s="138"/>
-      <c r="BB27" s="138"/>
-      <c r="BC27" s="138"/>
-      <c r="BD27" s="138"/>
-      <c r="BE27" s="138"/>
-      <c r="BF27" s="138"/>
-      <c r="BG27" s="138"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="145"/>
+      <c r="AN27" s="145"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="145"/>
+      <c r="AQ27" s="145"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="145"/>
+      <c r="AT27" s="145"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="145"/>
+      <c r="AW27" s="145"/>
+      <c r="AX27" s="145"/>
+      <c r="AY27" s="145"/>
+      <c r="AZ27" s="145"/>
+      <c r="BA27" s="145"/>
+      <c r="BB27" s="145"/>
+      <c r="BC27" s="145"/>
+      <c r="BD27" s="145"/>
+      <c r="BE27" s="145"/>
+      <c r="BF27" s="145"/>
+      <c r="BG27" s="145"/>
       <c r="BH27" s="21"/>
       <c r="BI27" s="38"/>
       <c r="BJ27" s="3"/>
@@ -37445,7 +37449,7 @@
     <row r="30" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -37968,7 +37972,7 @@
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -38224,12 +38228,12 @@
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="D33" s="73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="74"/>
       <c r="F33" s="75"/>
       <c r="G33" s="74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -38487,12 +38491,12 @@
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="D34" s="76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="77"/>
       <c r="F34" s="78"/>
       <c r="G34" s="77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
@@ -38750,12 +38754,12 @@
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="D35" s="79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="81"/>
       <c r="G35" s="80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="80"/>
@@ -39272,7 +39276,7 @@
     <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -39780,7 +39784,7 @@
     <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="7"/>
@@ -40288,7 +40292,7 @@
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="7"/>
@@ -40810,7 +40814,7 @@
     <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43" s="86"/>
       <c r="F43" s="86"/>
@@ -41319,7 +41323,7 @@
     <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" s="88"/>
       <c r="D45" s="88"/>
@@ -41582,7 +41586,7 @@
       <c r="A46" s="24"/>
       <c r="B46" s="85"/>
       <c r="C46" s="88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="88"/>
       <c r="E46" s="88"/>
@@ -41845,7 +41849,7 @@
       <c r="B47" s="85"/>
       <c r="C47" s="88"/>
       <c r="D47" s="88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E47" s="88"/>
       <c r="F47" s="88"/>
@@ -42106,7 +42110,7 @@
       <c r="A48" s="24"/>
       <c r="B48" s="85"/>
       <c r="C48" s="88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="88"/>
       <c r="E48" s="88"/>
@@ -42626,7 +42630,7 @@
     <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="86"/>
       <c r="D50" s="86"/>
@@ -43408,7 +43412,7 @@
     <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="135"/>
       <c r="D53" s="135"/>
@@ -43670,7 +43674,7 @@
     <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
@@ -44238,6 +44242,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -44369,7 +44379,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -44378,13 +44388,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44402,19 +44415,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>